--- a/static/files/BANGS.xlsx
+++ b/static/files/BANGS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/Desktop/Research/1 Active Projects/2022 BANG Questionnaire/Materials/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/Desktop/Research/3 Submitted Projects/2022 BANG Questionnaire/Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675F8B4D-B290-934F-B744-24090B15E8CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C875B903-A57B-284D-9536-ED5C83121FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5340" yWindow="2340" windowWidth="27640" windowHeight="16940" activeTab="3" xr2:uid="{43670338-F45A-5B4E-AEA1-2D0A6DACD0A3}"/>
+    <workbookView xWindow="5340" yWindow="1900" windowWidth="27640" windowHeight="16940" xr2:uid="{43670338-F45A-5B4E-AEA1-2D0A6DACD0A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="108">
   <si>
     <t>Many actions in [X] were boring.</t>
   </si>
@@ -108,25 +108,6 @@
   </si>
   <si>
     <t>I felt that others players and/or characters in [X] cared about me.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Source Sans Pro Regular"/>
-      </rPr>
-      <t>Note:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Source Sans Pro Regular"/>
-      </rPr>
-      <t xml:space="preserve"> [X] is a placeholder, which was filled in with 'the game' in Study 1 to refer to a single session; 'the games I played' in Study 2 to refer to gaming in general, and the name of a game entered by the participant using piped text in Study 3 to refer to one game over time.</t>
-    </r>
   </si>
   <si>
     <t>Interactions with other players and/or characters in [X] felt toxic to me.</t>
@@ -896,6 +877,81 @@
         <rFont val="Calibri (Body)"/>
       </rPr>
       <t>...</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Source Sans Pro Regular"/>
+      </rPr>
+      <t>Note:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Source Sans Pro Regular"/>
+      </rPr>
+      <t xml:space="preserve"> [X] is a placeholder with several validated variants to refer to different experiences (one session, one game over time, or all gaming over time). Please see the separate sheets in this file for each variant.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Scoring Instructions:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> We recommend taking the mean of each subscale (see below) and using this in models as an unstandardized score. If you prefer to use standardized scores, we recommend where possible using a latent factor model - see further details about this procedure in the BANGS user guide (https://nickballou.com/docs/bangs/userguide/). 
+Autonomy Satisfaction: bang_01, bang_02, bang_03
+Autonomy Frustration: bang_04, bang_05, bang_06
+Competence Satisfaction: bang_07, bang_08, bang_09
+Competence Frustration: bang_10, bang_11, bang_12
+Relatedness Satisfaction: bang_13, bang_14, bang_15
+Relatedness Frustration: bang_16, bang_17, bang_18
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Scoring with combined subscales: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Depending on your goal, it may be appropriate to calculate the mean of all the need satisfaction items (i.e., the 9 items covering satisfaction of autonomy, competence, and relatedness; see below) and/or the mean of all need frustration items (i.e., the 9 items covering frustration of autonomy, competence, and relatedness; see below) as holistic indications of overall need satisfaction and frustration. Note, however, that this will result in the loss of information about which needs are more satisfied or frustrated.
+Need satisfaction: bang_01, bang_02, bang_03, bang_07, bang_08, bang_09, bang_13, bang_14, bang_15
+Need frustration: bang_04, bang_05, bang_06, bang_10, bang_11, bang_12, bang_16, bang_17, bang_18
+We do not recommend calculating a score of all 18 items together (e.g., subtracting the mean of all need frustration items from the mean of all need satisfaction items)—need satisfaction and frustration are separate constructs with different consequences, and should therefore be used and interpreted separately.</t>
     </r>
   </si>
 </sst>
@@ -1029,8 +1085,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1038,43 +1119,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1093,9 +1149,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1133,7 +1189,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1239,7 +1295,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1381,7 +1437,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1389,282 +1445,413 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43AE0C6A-4BE2-1948-BCE8-C3527ECCDD8B}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="60.6640625" customWidth="1"/>
+    <col min="3" max="3" width="63.1640625" customWidth="1"/>
     <col min="4" max="4" width="19.1640625" customWidth="1"/>
     <col min="7" max="7" width="20.5" customWidth="1"/>
     <col min="10" max="10" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="21"/>
-      <c r="B1" s="21"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
+      <c r="A1" s="13"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
     </row>
     <row r="2" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="16" t="s">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="8">
+        <v>2</v>
+      </c>
+      <c r="F2" s="8">
+        <v>3</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" s="8">
+        <v>5</v>
+      </c>
+      <c r="I2" s="8">
+        <v>6</v>
+      </c>
+      <c r="J2" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="11">
-        <v>2</v>
-      </c>
-      <c r="F2" s="11">
-        <v>3</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="H2" s="11">
-        <v>5</v>
-      </c>
-      <c r="I2" s="11">
-        <v>6</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>83</v>
-      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="17" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="17"/>
+      <c r="D3" s="11"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="17"/>
+      <c r="D4" s="11"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="17"/>
+      <c r="D5" s="11"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="17" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="17"/>
+      <c r="D6" s="11"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="17"/>
+      <c r="D7" s="11"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="17"/>
+      <c r="D8" s="11"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="17" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="17"/>
+      <c r="D9" s="11"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="17"/>
+      <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="17"/>
+      <c r="D11" s="11"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="17" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="17"/>
+      <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="17"/>
+      <c r="D13" s="11"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="17"/>
+      <c r="D14" s="11"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="17" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="17"/>
+      <c r="D15" s="11"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="17"/>
+      <c r="D16" s="11"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="17"/>
+      <c r="D17" s="11"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="17" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="11"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="17"/>
+      <c r="B19" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="17"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
-      <c r="B19" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="17"/>
+      <c r="D19" s="11"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
+      <c r="A20" s="17"/>
       <c r="B20" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="17"/>
+      <c r="D20" s="11"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="17"/>
+      <c r="D21" s="11"/>
     </row>
     <row r="22" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="17"/>
+      <c r="A22" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="11"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="17"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="11"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="17"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="11"/>
+    </row>
+    <row r="26" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="21"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="21"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="21"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="21"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="21"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="21"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+    </row>
+    <row r="39" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="21"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="21"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="21"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="21"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="21"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="21"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="21"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="21"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="21"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="21"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="21"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="21"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="21"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="21"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="A26:C37"/>
+    <mergeCell ref="A39:C51"/>
     <mergeCell ref="D1:J1"/>
     <mergeCell ref="A22:C24"/>
     <mergeCell ref="A3:A5"/>
@@ -1694,251 +1881,251 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
     </row>
     <row r="2" spans="1:10" ht="67" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="16" t="s">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="8">
+        <v>2</v>
+      </c>
+      <c r="F2" s="8">
+        <v>3</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" s="8">
+        <v>5</v>
+      </c>
+      <c r="I2" s="8">
+        <v>6</v>
+      </c>
+      <c r="J2" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="11">
-        <v>2</v>
-      </c>
-      <c r="F2" s="11">
-        <v>3</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="H2" s="11">
-        <v>5</v>
-      </c>
-      <c r="I2" s="11">
-        <v>6</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>83</v>
-      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="18"/>
+      <c r="B4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C4" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="9"/>
-      <c r="B4" s="7" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="18"/>
+      <c r="B5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
-      <c r="B5" s="7" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="7" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="18"/>
+      <c r="B7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
-      <c r="B7" s="7" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="18"/>
+      <c r="B8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="7" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C9" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="7" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="18"/>
+      <c r="B10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C10" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
-      <c r="B10" s="7" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="18"/>
+      <c r="B11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C11" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
-      <c r="B11" s="7" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C12" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="7" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="18"/>
+      <c r="B13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C13" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
-      <c r="B13" s="7" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="18"/>
+      <c r="B14" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C14" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="7" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C15" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="7" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="18"/>
+      <c r="B16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C16" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="9"/>
-      <c r="B16" s="7" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="18"/>
+      <c r="B17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C17" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="9"/>
-      <c r="B17" s="7" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C18" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="7" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="18"/>
+      <c r="B19" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C19" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="9"/>
-      <c r="B19" s="7" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="18"/>
+      <c r="B20" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C20" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="9"/>
-      <c r="B20" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
     </row>
     <row r="22" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A20"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="D1:J1"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A18:A20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1959,227 +2146,227 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+    </row>
+    <row r="2" spans="1:10" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="8">
+        <v>2</v>
+      </c>
+      <c r="F2" s="8">
+        <v>3</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" s="8">
+        <v>5</v>
+      </c>
+      <c r="I2" s="8">
+        <v>6</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-    </row>
-    <row r="2" spans="1:10" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E2" s="11">
-        <v>2</v>
-      </c>
-      <c r="F2" s="11">
-        <v>3</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="H2" s="11">
-        <v>5</v>
-      </c>
-      <c r="I2" s="11">
-        <v>6</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="7" t="s">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="18"/>
+      <c r="B4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C4" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="9"/>
-      <c r="B4" s="7" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="18"/>
+      <c r="B5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
-      <c r="B5" s="7" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="7" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="18"/>
+      <c r="B7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
-      <c r="B7" s="7" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="18"/>
+      <c r="B8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="7" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C9" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="7" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="18"/>
+      <c r="B10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C10" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
-      <c r="B10" s="7" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="18"/>
+      <c r="B11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C11" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
-      <c r="B11" s="7" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C12" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="7" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="18"/>
+      <c r="B13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C13" s="6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
-      <c r="B13" s="7" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="18"/>
+      <c r="B14" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C14" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="7" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C15" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="7" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="18"/>
+      <c r="B16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C16" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="9"/>
-      <c r="B16" s="7" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="18"/>
+      <c r="B17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C17" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="9"/>
-      <c r="B17" s="7" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C18" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="7" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="18"/>
+      <c r="B19" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C19" s="6" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="9"/>
-      <c r="B19" s="7" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="18"/>
+      <c r="B20" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C20" s="6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="9"/>
-      <c r="B20" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="8" t="s">
+    <row r="21" spans="1:3" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="21" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2201,8 +2388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E07DADB3-A487-834D-8657-520E48473C08}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2212,246 +2399,246 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
+      <c r="A1" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
     </row>
     <row r="2" spans="1:10" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="16" t="s">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="8">
+        <v>2</v>
+      </c>
+      <c r="F2" s="8">
+        <v>3</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" s="8">
+        <v>5</v>
+      </c>
+      <c r="I2" s="8">
+        <v>6</v>
+      </c>
+      <c r="J2" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="11">
-        <v>2</v>
-      </c>
-      <c r="F2" s="11">
-        <v>3</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="H2" s="11">
-        <v>5</v>
-      </c>
-      <c r="I2" s="11">
-        <v>6</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>83</v>
-      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="18"/>
+      <c r="B4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C4" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="17"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="9"/>
-      <c r="B4" s="7" t="s">
+      <c r="D4" s="11"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="18"/>
+      <c r="B5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C5" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
-      <c r="B5" s="7" t="s">
+      <c r="D5" s="11"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C6" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="17"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="D6" s="11"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="18"/>
+      <c r="B7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C7" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="17"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
-      <c r="B7" s="7" t="s">
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="18"/>
+      <c r="B8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C8" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="17"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="7" t="s">
+      <c r="D8" s="11"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C9" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D8" s="17"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="7" t="s">
+      <c r="D9" s="11"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="18"/>
+      <c r="B10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C10" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D9" s="17"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
-      <c r="B10" s="7" t="s">
+      <c r="D10" s="11"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="18"/>
+      <c r="B11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C11" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="D10" s="17"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
-      <c r="B11" s="7" t="s">
+      <c r="D11" s="11"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C12" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="D11" s="17"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="7" t="s">
+      <c r="D12" s="11"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="18"/>
+      <c r="B13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C13" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="D12" s="17"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
-      <c r="B13" s="7" t="s">
+      <c r="D13" s="11"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="18"/>
+      <c r="B14" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C14" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="D13" s="17"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="7" t="s">
+      <c r="D14" s="11"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C15" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="D14" s="17"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="7" t="s">
+      <c r="D15" s="11"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="18"/>
+      <c r="B16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C16" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="D15" s="17"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="9"/>
-      <c r="B16" s="7" t="s">
+      <c r="D16" s="11"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="18"/>
+      <c r="B17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C17" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="17"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="9"/>
-      <c r="B17" s="7" t="s">
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C18" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="D17" s="17"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="7" t="s">
+      <c r="D18" s="11"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="18"/>
+      <c r="B19" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C19" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="D18" s="17"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="9"/>
-      <c r="B19" s="7" t="s">
+      <c r="D19" s="11"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="18"/>
+      <c r="B20" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C20" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="D19" s="17"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="9"/>
-      <c r="B20" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="20" t="s">
+      <c r="D20" s="11"/>
+    </row>
+    <row r="21" spans="1:4" ht="115" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="D20" s="17"/>
-    </row>
-    <row r="21" spans="1:4" ht="115" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="17"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/static/files/BANGS.xlsx
+++ b/static/files/BANGS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/Desktop/Research/3 Submitted Projects/2022 BANG Questionnaire/Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C875B903-A57B-284D-9536-ED5C83121FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F6EFCA0-7254-9C44-9320-9BF526BD7AE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5340" yWindow="1900" windowWidth="27640" windowHeight="16940" xr2:uid="{43670338-F45A-5B4E-AEA1-2D0A6DACD0A3}"/>
   </bookViews>
@@ -113,60 +113,6 @@
     <t>Interactions with other players and/or characters in [X] felt toxic to me.</t>
   </si>
   <si>
-    <t>bang_01</t>
-  </si>
-  <si>
-    <t>bang_02</t>
-  </si>
-  <si>
-    <t>bang_03</t>
-  </si>
-  <si>
-    <t>bang_04</t>
-  </si>
-  <si>
-    <t>bang_05</t>
-  </si>
-  <si>
-    <t>bang_06</t>
-  </si>
-  <si>
-    <t>bang_07</t>
-  </si>
-  <si>
-    <t>bang_08</t>
-  </si>
-  <si>
-    <t>bang_09</t>
-  </si>
-  <si>
-    <t>bang_10</t>
-  </si>
-  <si>
-    <t>bang_11</t>
-  </si>
-  <si>
-    <t>bang_12</t>
-  </si>
-  <si>
-    <t>bang_13</t>
-  </si>
-  <si>
-    <t>bang_14</t>
-  </si>
-  <si>
-    <t>bang_15</t>
-  </si>
-  <si>
-    <t>bang_16</t>
-  </si>
-  <si>
-    <t>bang_17</t>
-  </si>
-  <si>
-    <t>bang_18</t>
-  </si>
-  <si>
     <t>I could make choices regarding how to play the game.</t>
   </si>
   <si>
@@ -778,28 +724,32 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <i/>
+      <t xml:space="preserve">Stem Text: </t>
+    </r>
+    <r>
+      <rPr>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Notes</t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve">Please read each of the following items carefully, and choose from 1 to 7 to indicate the degree to which each statement characterizes your experiences of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve">gaming in general throughout the past </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri (Body)"/>
@@ -814,13 +764,125 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> can be replaced by whatever period of time you feel is relevant for the study. In our research we used a period of 2 weeks. 
-The use of the phrase "[in] the games I played" is notably wordy—this was an conscious decision so that the items were extremely clear in referring to experiences across all games, but we are cautiously optimistic that the scale could equally be used to assess gaming in general simply by removing the phrase entirely from all items (e.g., bang_01 becomes "When playing games in the last [time period], I could make choices regarding how to play."</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Stem Text: </t>
+      <t xml:space="preserve">.
+Throughout my experiences playing games in the last </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>[time period]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>...</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Source Sans Pro Regular"/>
+      </rPr>
+      <t>Note:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Source Sans Pro Regular"/>
+      </rPr>
+      <t xml:space="preserve"> [X] is a placeholder with several validated variants to refer to different experiences (one session, one game over time, or all gaming over time). Please see the separate sheets in this file for each variant.</t>
+    </r>
+  </si>
+  <si>
+    <t>bangs_01</t>
+  </si>
+  <si>
+    <t>bangs_02</t>
+  </si>
+  <si>
+    <t>bangs_03</t>
+  </si>
+  <si>
+    <t>bangs_04</t>
+  </si>
+  <si>
+    <t>bangs_05</t>
+  </si>
+  <si>
+    <t>bangs_06</t>
+  </si>
+  <si>
+    <t>bangs_07</t>
+  </si>
+  <si>
+    <t>bangs_08</t>
+  </si>
+  <si>
+    <t>bangs_09</t>
+  </si>
+  <si>
+    <t>bangs_10</t>
+  </si>
+  <si>
+    <t>bangs_11</t>
+  </si>
+  <si>
+    <t>bangs_12</t>
+  </si>
+  <si>
+    <t>bangs_13</t>
+  </si>
+  <si>
+    <t>bangs_14</t>
+  </si>
+  <si>
+    <t>bangs_15</t>
+  </si>
+  <si>
+    <t>bangs_16</t>
+  </si>
+  <si>
+    <t>bangs_17</t>
+  </si>
+  <si>
+    <t>bangs_18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scoring Instructions: We recommend taking the mean of each subscale (see below) and using this in models as an unstandardized score. If you prefer to use standardized scores, we recommend where possible using a latent factor model - see further details about this procedure in the BANGS user guide (https://nickballou.com/docs/bangs/userguide/). 
+Autonomy Satisfaction: bangs_01, bangs_02, bangs_03
+Autonomy Frustration: bangs_04, bangs_05, bangs_06
+Competence Satisfaction: bangs_07, bangs_08, bangs_09
+Competence Frustration: bangs_10, bangs_11, bangs_12
+Relatedness Satisfaction: bangs_13, bangs_14, bangs_15
+Relatedness Frustration: bangs_16, bangs_17, bangs_18
+</t>
+  </si>
+  <si>
+    <t>Scoring with combined subscales: Depending on your goal, it may be appropriate to calculate the mean of all the need satisfaction items (i.e., the 9 items covering satisfaction of autonomy, competence, and relatedness; see below) and/or the mean of all need frustration items (i.e., the 9 items covering frustration of autonomy, competence, and relatedness; see below) as holistic indications of overall need satisfaction and frustration. Note, however, that this will result in the loss of information about which needs are more satisfied or frustrated.
+Need satisfaction: bangs_01, bangs_02, bangs_03, bangs_07, bangs_08, bangs_09, bangs_13, bangs_14, bangs_15
+Need frustration: bangs_04, bangs_05, bangs_06, bangs_10, bangs_11, bangs_12, bangs_16, bangs_17, bangs_18
+We do not recommend calculating a score of all 18 items together (e.g., subtracting the mean of all need frustration items from the mean of all need satisfaction items)—need satisfaction and frustration are separate constructs with different consequences, and should therefore be used and interpreted separately.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Notes: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>[time period]</t>
     </r>
     <r>
       <rPr>
@@ -830,128 +892,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Please read each of the following items carefully, and choose from 1 to 7 to indicate the degree to which each statement characterizes your experiences of </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">gaming in general throughout the past </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>[time period]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.
-Throughout my experiences playing games in the last </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>[time period]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>...</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Source Sans Pro Regular"/>
-      </rPr>
-      <t>Note:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Source Sans Pro Regular"/>
-      </rPr>
-      <t xml:space="preserve"> [X] is a placeholder with several validated variants to refer to different experiences (one session, one game over time, or all gaming over time). Please see the separate sheets in this file for each variant.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Scoring Instructions:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> We recommend taking the mean of each subscale (see below) and using this in models as an unstandardized score. If you prefer to use standardized scores, we recommend where possible using a latent factor model - see further details about this procedure in the BANGS user guide (https://nickballou.com/docs/bangs/userguide/). 
-Autonomy Satisfaction: bang_01, bang_02, bang_03
-Autonomy Frustration: bang_04, bang_05, bang_06
-Competence Satisfaction: bang_07, bang_08, bang_09
-Competence Frustration: bang_10, bang_11, bang_12
-Relatedness Satisfaction: bang_13, bang_14, bang_15
-Relatedness Frustration: bang_16, bang_17, bang_18
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Scoring with combined subscales: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Depending on your goal, it may be appropriate to calculate the mean of all the need satisfaction items (i.e., the 9 items covering satisfaction of autonomy, competence, and relatedness; see below) and/or the mean of all need frustration items (i.e., the 9 items covering frustration of autonomy, competence, and relatedness; see below) as holistic indications of overall need satisfaction and frustration. Note, however, that this will result in the loss of information about which needs are more satisfied or frustrated.
-Need satisfaction: bang_01, bang_02, bang_03, bang_07, bang_08, bang_09, bang_13, bang_14, bang_15
-Need frustration: bang_04, bang_05, bang_06, bang_10, bang_11, bang_12, bang_16, bang_17, bang_18
-We do not recommend calculating a score of all 18 items together (e.g., subtracting the mean of all need frustration items from the mean of all need satisfaction items)—need satisfaction and frustration are separate constructs with different consequences, and should therefore be used and interpreted separately.</t>
+      <t xml:space="preserve"> can be replaced by whatever period of time you feel is relevant for the study. In our research we used a period of 2 weeks. 
+The use of the phrase "[in] the games I played" is notably wordy—this was an conscious decision so that the items were extremely clear in referring to experiences across all games, but we are cautiously optimistic that the scale could equally be used to assess gaming in general simply by removing the phrase entirely from all items (e.g., bangs_01 becomes "When playing games in the last [time period], I could make choices regarding how to play."</t>
     </r>
   </si>
 </sst>
@@ -1107,11 +1049,17 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1124,12 +1072,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1448,7 +1390,7 @@
   <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:C51"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1465,22 +1407,22 @@
       <c r="A1" s="13"/>
       <c r="B1" s="13"/>
       <c r="C1" s="14"/>
-      <c r="D1" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
+      <c r="D1" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
     </row>
     <row r="2" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="14"/>
       <c r="D2" s="10" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="E2" s="8">
         <v>2</v>
@@ -1489,7 +1431,7 @@
         <v>3</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="H2" s="8">
         <v>5</v>
@@ -1498,15 +1440,15 @@
         <v>6</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="19" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>3</v>
@@ -1514,9 +1456,9 @@
       <c r="D3" s="11"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="17"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="4" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>4</v>
@@ -1524,9 +1466,9 @@
       <c r="D4" s="11"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="17"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="4" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
@@ -1534,11 +1476,11 @@
       <c r="D5" s="11"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="19" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>5</v>
@@ -1546,9 +1488,9 @@
       <c r="D6" s="11"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="4" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>0</v>
@@ -1556,9 +1498,9 @@
       <c r="D7" s="11"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="4" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>6</v>
@@ -1566,11 +1508,11 @@
       <c r="D8" s="11"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="19" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>7</v>
@@ -1578,9 +1520,9 @@
       <c r="D9" s="11"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="17"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="4" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>1</v>
@@ -1588,9 +1530,9 @@
       <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="4" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>8</v>
@@ -1598,11 +1540,11 @@
       <c r="D11" s="11"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="19" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>2</v>
@@ -1610,9 +1552,9 @@
       <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="17"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="4" t="s">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>10</v>
@@ -1620,9 +1562,9 @@
       <c r="D13" s="11"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="17"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="4" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>11</v>
@@ -1630,11 +1572,11 @@
       <c r="D14" s="11"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>12</v>
@@ -1642,9 +1584,9 @@
       <c r="D15" s="11"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="17"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="4" t="s">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>13</v>
@@ -1652,9 +1594,9 @@
       <c r="D16" s="11"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="17"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="4" t="s">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>22</v>
@@ -1662,11 +1604,11 @@
       <c r="D17" s="11"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="19" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>39</v>
+        <v>102</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>23</v>
@@ -1674,9 +1616,9 @@
       <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
+      <c r="A19" s="19"/>
       <c r="B19" s="4" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>14</v>
@@ -1684,9 +1626,9 @@
       <c r="D19" s="11"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="17"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="4" t="s">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>15</v>
@@ -1700,153 +1642,153 @@
       <c r="D21" s="11"/>
     </row>
     <row r="22" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="11"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="11"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="11"/>
+    </row>
+    <row r="26" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="11"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="22"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="11"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="22"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="11"/>
-    </row>
-    <row r="26" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="21" t="s">
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="15"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="15"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+    </row>
+    <row r="39" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="21"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="21"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="21"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="21"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="21"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="21"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="21"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="21"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="21"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="21"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="21"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-    </row>
-    <row r="39" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="21"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
+      <c r="A40" s="15"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="21"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
+      <c r="A41" s="15"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="21"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="21"/>
+      <c r="A42" s="15"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="21"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
+      <c r="A43" s="15"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="21"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
+      <c r="A44" s="15"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="21"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
+      <c r="A45" s="15"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="21"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
+      <c r="A46" s="15"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="21"/>
-      <c r="B47" s="21"/>
-      <c r="C47" s="21"/>
+      <c r="A47" s="15"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="21"/>
-      <c r="B48" s="21"/>
-      <c r="C48" s="21"/>
+      <c r="A48" s="15"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="21"/>
-      <c r="B49" s="21"/>
-      <c r="C49" s="21"/>
+      <c r="A49" s="15"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="21"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="21"/>
+      <c r="A50" s="15"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="21"/>
-      <c r="B51" s="21"/>
-      <c r="C51" s="21"/>
+      <c r="A51" s="15"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1881,27 +1823,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
+      <c r="A1" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
     </row>
     <row r="2" spans="1:10" ht="67" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
       <c r="D2" s="10" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="E2" s="8">
         <v>2</v>
@@ -1910,7 +1852,7 @@
         <v>3</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="H2" s="8">
         <v>5</v>
@@ -1919,181 +1861,181 @@
         <v>6</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="20" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="18"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="18"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="20" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="18"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="18"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="20" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="18"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="18"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="20" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="18"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="18"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="20" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="18"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="20" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="18"/>
+      <c r="A19" s="20"/>
       <c r="B19" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="18"/>
+      <c r="A20" s="20"/>
       <c r="B20" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -2146,27 +2088,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
+      <c r="A1" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
     </row>
     <row r="2" spans="1:10" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
       <c r="D2" s="10" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="E2" s="8">
         <v>2</v>
@@ -2175,7 +2117,7 @@
         <v>3</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="H2" s="8">
         <v>5</v>
@@ -2184,189 +2126,189 @@
         <v>6</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="20" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="20"/>
+      <c r="B4" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="20"/>
+      <c r="B5" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="20"/>
+      <c r="B7" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="20"/>
+      <c r="B8" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="20"/>
+      <c r="B10" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="20"/>
+      <c r="B11" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="20"/>
+      <c r="B13" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="20"/>
+      <c r="B14" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="20"/>
+      <c r="B16" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="20"/>
+      <c r="B17" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="20"/>
+      <c r="B19" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="20"/>
+      <c r="B20" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="15" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="18"/>
-      <c r="B4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="18"/>
-      <c r="B5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="18"/>
-      <c r="B7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="18"/>
-      <c r="B8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="18"/>
-      <c r="B10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="18"/>
-      <c r="B11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="18"/>
-      <c r="B13" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="18"/>
-      <c r="B14" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
-      <c r="B16" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="18"/>
-      <c r="B17" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="18"/>
-      <c r="B19" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="18"/>
-      <c r="B20" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2389,7 +2331,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="A21" sqref="A21:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2399,27 +2341,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
+      <c r="A1" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
     </row>
     <row r="2" spans="1:10" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
       <c r="D2" s="10" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="E2" s="8">
         <v>2</v>
@@ -2428,7 +2370,7 @@
         <v>3</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="H2" s="8">
         <v>5</v>
@@ -2437,207 +2379,207 @@
         <v>6</v>
       </c>
       <c r="J2" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="20"/>
+      <c r="B4" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="11"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="20"/>
+      <c r="B5" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="11"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="11"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="20"/>
+      <c r="B7" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="20"/>
+      <c r="B8" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="11"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="11"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="20"/>
+      <c r="B10" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="11"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="20"/>
+      <c r="B11" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="11"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="11"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="20"/>
+      <c r="B13" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="11"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="20"/>
+      <c r="B14" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="11"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="11"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="20"/>
+      <c r="B16" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="11"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="20"/>
+      <c r="B17" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="12" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" s="11"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="18"/>
-      <c r="B4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" s="11"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="18"/>
-      <c r="B5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" s="11"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" s="11"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="18"/>
-      <c r="B7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="18"/>
-      <c r="B8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="D8" s="11"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" s="11"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="18"/>
-      <c r="B10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="D10" s="11"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="18"/>
-      <c r="B11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="D11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="D12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="18"/>
-      <c r="B13" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="D13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="18"/>
-      <c r="B14" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="D14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="D15" s="11"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
-      <c r="B16" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="D16" s="11"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="18"/>
-      <c r="B17" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="D17" s="11"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>100</v>
-      </c>
       <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="18"/>
+      <c r="A19" s="20"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="D19" s="11"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="18"/>
+      <c r="A20" s="20"/>
       <c r="B20" s="5" t="s">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="D20" s="11"/>
     </row>
     <row r="21" spans="1:4" ht="115" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
+      <c r="A21" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
       <c r="D21" s="11"/>
     </row>
   </sheetData>

--- a/static/files/BANGS.xlsx
+++ b/static/files/BANGS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/Desktop/Research/3 Submitted Projects/2022 BANG Questionnaire/Materials/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/Desktop/Research/2 Submitted Projects/2022 BANG Questionnaire/Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F6EFCA0-7254-9C44-9320-9BF526BD7AE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D2807B-48BE-DF42-B249-4EE5CF672813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5340" yWindow="1900" windowWidth="27640" windowHeight="16940" xr2:uid="{43670338-F45A-5B4E-AEA1-2D0A6DACD0A3}"/>
   </bookViews>
@@ -41,9 +41,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="108">
   <si>
-    <t>Many actions in [X] were boring.</t>
-  </si>
-  <si>
     <t>I felt that I made progress while playing [X].</t>
   </si>
   <si>
@@ -107,9 +104,6 @@
     <t>Relatedness Frustration</t>
   </si>
   <si>
-    <t>I felt that others players and/or characters in [X] cared about me.</t>
-  </si>
-  <si>
     <t>Interactions with other players and/or characters in [X] felt toxic to me.</t>
   </si>
   <si>
@@ -125,9 +119,6 @@
     <t>I felt forced to take certain actions in the game.</t>
   </si>
   <si>
-    <t>Many actions in the game were boring.</t>
-  </si>
-  <si>
     <t>I often found myself wishing I could do something else within the game.</t>
   </si>
   <si>
@@ -153,9 +144,6 @@
   </si>
   <si>
     <t>Engaging with the game, I felt a connection to others, virtual or real.</t>
-  </si>
-  <si>
-    <t>I felt that others players and/or characters in the game cared about me.</t>
   </si>
   <si>
     <t>Interactions with other players and/or characters in the game felt toxic to me.</t>
@@ -290,7 +278,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Many actions in </t>
+      <t xml:space="preserve">I often found myself wishing I could do something else within </t>
     </r>
     <r>
       <rPr>
@@ -307,12 +295,12 @@
         <rFont val="Source Sans Pro Regular"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> were boring.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">I often found myself wishing I could do something else within </t>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I felt I was getting better at playing </t>
     </r>
     <r>
       <rPr>
@@ -334,7 +322,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">I felt I was getting better at playing </t>
+      <t xml:space="preserve">I felt that I made progress while playing </t>
     </r>
     <r>
       <rPr>
@@ -356,7 +344,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">I felt that I made progress while playing </t>
+      <t xml:space="preserve">I felt a sense of achievement while playing </t>
     </r>
     <r>
       <rPr>
@@ -373,12 +361,34 @@
         <rFont val="Source Sans Pro Regular"/>
         <charset val="1"/>
       </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I often felt that I lacked the skills necessary for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Source Sans Pro Regular"/>
+      </rPr>
+      <t>[name of game]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Source Sans Pro Regular"/>
+        <charset val="1"/>
+      </rPr>
       <t>.</t>
     </r>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">I felt a sense of achievement while playing </t>
+      <t xml:space="preserve">I kept failing to accomplish what I wanted to while playing </t>
     </r>
     <r>
       <rPr>
@@ -400,7 +410,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">I often felt that I lacked the skills necessary for </t>
+      <t xml:space="preserve">I felt disappointed with my performance in </t>
     </r>
     <r>
       <rPr>
@@ -417,12 +427,12 @@
         <rFont val="Source Sans Pro Regular"/>
         <charset val="1"/>
       </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">I kept failing to accomplish what I wanted to while playing </t>
+      <t xml:space="preserve">. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I felt I formed relationships with other players and/or characters in </t>
     </r>
     <r>
       <rPr>
@@ -444,7 +454,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">I felt disappointed with my performance in </t>
+      <t xml:space="preserve">Engaging with </t>
     </r>
     <r>
       <rPr>
@@ -461,73 +471,7 @@
         <rFont val="Source Sans Pro Regular"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">I felt I formed relationships with other players and/or characters in </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Source Sans Pro Regular"/>
-      </rPr>
-      <t>[name of game]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Source Sans Pro Regular"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Engaging with </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Source Sans Pro Regular"/>
-      </rPr>
-      <t>[name of game]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Source Sans Pro Regular"/>
-        <charset val="1"/>
-      </rPr>
       <t>, I felt a connection to others, virtual or real.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">I felt that others players and/or characters in </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Source Sans Pro Regular"/>
-      </rPr>
-      <t>[name of game]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Source Sans Pro Regular"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> cared about me.</t>
     </r>
   </si>
   <si>
@@ -681,9 +625,6 @@
     <t>I felt forced to take certain actions in the games I played.</t>
   </si>
   <si>
-    <t>Many actions in the games I played were boring.</t>
-  </si>
-  <si>
     <t>I often found myself wishing I could do something else within the games I played.</t>
   </si>
   <si>
@@ -709,9 +650,6 @@
   </si>
   <si>
     <t>Engaging with the games I played, I felt a connection to others, virtual or real.</t>
-  </si>
-  <si>
-    <t>I felt that others players and/or characters in the games I played cared about me.</t>
   </si>
   <si>
     <t>Interactions with other players and/or characters in the games I played felt toxic to me.</t>
@@ -895,6 +833,68 @@
       <t xml:space="preserve"> can be replaced by whatever period of time you feel is relevant for the study. In our research we used a period of 2 weeks. 
 The use of the phrase "[in] the games I played" is notably wordy—this was an conscious decision so that the items were extremely clear in referring to experiences across all games, but we are cautiously optimistic that the scale could equally be used to assess gaming in general simply by removing the phrase entirely from all items (e.g., bangs_01 becomes "When playing games in the last [time period], I could make choices regarding how to play."</t>
     </r>
+  </si>
+  <si>
+    <t>Many activities in [X] were boring.</t>
+  </si>
+  <si>
+    <t>Many activities in the game were boring.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Many activities in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Source Sans Pro Regular"/>
+      </rPr>
+      <t>[name of game]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Source Sans Pro Regular"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> were boring.</t>
+    </r>
+  </si>
+  <si>
+    <t>Many activities in the games I played were boring.</t>
+  </si>
+  <si>
+    <t>I felt that other players and/or characters in [X] cared about me.</t>
+  </si>
+  <si>
+    <t>I felt that other players and/or characters in the game cared about me.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I felt that other players and/or characters in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Source Sans Pro Regular"/>
+      </rPr>
+      <t>[name of game]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Source Sans Pro Regular"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> cared about me.</t>
+    </r>
+  </si>
+  <si>
+    <t>I felt that other players and/or characters in the games I played cared about me.</t>
   </si>
 </sst>
 </file>
@@ -1390,7 +1390,7 @@
   <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1408,7 +1408,7 @@
       <c r="B1" s="13"/>
       <c r="C1" s="14"/>
       <c r="D1" s="16" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E1" s="17"/>
       <c r="F1" s="17"/>
@@ -1422,7 +1422,7 @@
       <c r="B2" s="13"/>
       <c r="C2" s="14"/>
       <c r="D2" s="10" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E2" s="8">
         <v>2</v>
@@ -1431,7 +1431,7 @@
         <v>3</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H2" s="8">
         <v>5</v>
@@ -1440,198 +1440,198 @@
         <v>6</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" s="11"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="19"/>
       <c r="B4" s="4" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" s="11"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="19"/>
       <c r="B5" s="4" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="11"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" s="11"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="19"/>
       <c r="B7" s="4" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D7" s="11"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="19"/>
       <c r="B8" s="4" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" s="11"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" s="11"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="19"/>
       <c r="B10" s="4" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="19"/>
       <c r="B11" s="4" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" s="11"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="19"/>
       <c r="B13" s="4" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13" s="11"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="19"/>
       <c r="B14" s="4" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D14" s="11"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D15" s="11"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="19"/>
       <c r="B16" s="4" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D16" s="11"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="19"/>
       <c r="B17" s="4" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="D17" s="11"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="19"/>
       <c r="B19" s="4" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19" s="11"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="19"/>
       <c r="B20" s="4" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D20" s="11"/>
     </row>
@@ -1643,7 +1643,7 @@
     </row>
     <row r="22" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
@@ -1663,7 +1663,7 @@
     </row>
     <row r="26" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
@@ -1725,7 +1725,7 @@
     </row>
     <row r="39" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="15" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B39" s="15"/>
       <c r="C39" s="15"/>
@@ -1813,7 +1813,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1824,12 +1824,12 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
       <c r="D1" s="16" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E1" s="17"/>
       <c r="F1" s="17"/>
@@ -1843,7 +1843,7 @@
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
       <c r="D2" s="10" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E2" s="8">
         <v>2</v>
@@ -1852,7 +1852,7 @@
         <v>3</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H2" s="8">
         <v>5</v>
@@ -1861,181 +1861,181 @@
         <v>6</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="20"/>
       <c r="B4" s="5" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="20"/>
       <c r="B5" s="5" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="20"/>
       <c r="B7" s="5" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>28</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="20"/>
       <c r="B8" s="5" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="20"/>
       <c r="B10" s="5" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="20"/>
       <c r="B11" s="5" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="20"/>
       <c r="B13" s="5" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="20"/>
       <c r="B14" s="5" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="20"/>
       <c r="B16" s="5" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="20"/>
       <c r="B17" s="5" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>38</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="20"/>
       <c r="B19" s="5" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="20"/>
       <c r="B20" s="5" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -2078,7 +2078,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2089,12 +2089,12 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
       <c r="D1" s="16" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E1" s="17"/>
       <c r="F1" s="17"/>
@@ -2108,7 +2108,7 @@
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
       <c r="D2" s="10" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E2" s="8">
         <v>2</v>
@@ -2117,7 +2117,7 @@
         <v>3</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H2" s="8">
         <v>5</v>
@@ -2126,186 +2126,186 @@
         <v>6</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="20"/>
       <c r="B4" s="5" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="20"/>
       <c r="B5" s="5" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="20"/>
       <c r="B7" s="5" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="20"/>
       <c r="B8" s="5" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="20"/>
       <c r="B10" s="5" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="20"/>
       <c r="B11" s="5" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="20"/>
       <c r="B13" s="5" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="20"/>
       <c r="B14" s="5" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="20"/>
       <c r="B16" s="5" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="20"/>
       <c r="B17" s="5" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>57</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="20"/>
       <c r="B19" s="5" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="20"/>
       <c r="B20" s="5" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
@@ -2331,7 +2331,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:C21"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2342,12 +2342,12 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
       <c r="D1" s="16" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E1" s="17"/>
       <c r="F1" s="17"/>
@@ -2361,7 +2361,7 @@
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
       <c r="D2" s="10" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E2" s="8">
         <v>2</v>
@@ -2370,7 +2370,7 @@
         <v>3</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H2" s="8">
         <v>5</v>
@@ -2379,204 +2379,204 @@
         <v>6</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D3" s="11"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="20"/>
       <c r="B4" s="5" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D4" s="11"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="20"/>
       <c r="B5" s="5" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D5" s="11"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D6" s="11"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="20"/>
       <c r="B7" s="5" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="D7" s="11"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="20"/>
       <c r="B8" s="5" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D8" s="11"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D9" s="11"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="20"/>
       <c r="B10" s="5" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="20"/>
       <c r="B11" s="5" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D11" s="11"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="20"/>
       <c r="B13" s="5" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D13" s="11"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="20"/>
       <c r="B14" s="5" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D14" s="11"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D15" s="11"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="20"/>
       <c r="B16" s="5" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D16" s="11"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="20"/>
       <c r="B17" s="5" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="D17" s="11"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="20"/>
       <c r="B19" s="5" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D19" s="11"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="20"/>
       <c r="B20" s="5" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D20" s="11"/>
     </row>
     <row r="21" spans="1:4" ht="115" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
